--- a/data/trans_bre/P1408-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1408-Edad-trans_bre.xlsx
@@ -660,14 +660,14 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.252061121521721</v>
+        <v>-2.368082085597444</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>-1.779272124591595</v>
+        <v>-1.496593154606995</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6188094794827949</v>
+        <v>0.6587046359429679</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>-1</v>
@@ -684,19 +684,17 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.195311648737941</v>
+        <v>-0.2018386698145684</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.946938289401008</v>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>6.314724451378232</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.28823614940917</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
@@ -746,19 +744,19 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.499869506365118</v>
+        <v>-0.4710281888376536</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.2958973822778305</v>
+        <v>-0.2929038842784722</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.5057701316249138</v>
+        <v>-0.4132997763558927</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.568716396854772</v>
+        <v>-0.4822583965570487</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4038310217827248</v>
+        <v>-0.4061632631360764</v>
       </c>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="inlineStr"/>
@@ -772,19 +770,19 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.181106025657631</v>
+        <v>2.278271786221673</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5476904559156679</v>
+        <v>0.5667118690567842</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.009215379841107</v>
+        <v>1.031514264216436</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.768343672856247</v>
+        <v>1.919805201773723</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.379365936706275</v>
+        <v>3.598710680203997</v>
       </c>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="inlineStr"/>
@@ -834,23 +832,21 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6794169542895562</v>
+        <v>-0.9260438912381008</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9479225593432434</v>
+        <v>-0.8626726842211693</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6851739711807414</v>
+        <v>-0.6772964955431672</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7942630571854405</v>
+        <v>-0.6319291963290489</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5010272512173944</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>-0.8373089928143805</v>
-      </c>
+        <v>-0.5440886807684019</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="inlineStr"/>
     </row>
@@ -862,23 +858,21 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.748057426619665</v>
+        <v>1.635462589361997</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8079868899497491</v>
+        <v>0.7955472732191796</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8136871590923128</v>
+        <v>0.8841998180019763</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7811788711087836</v>
+        <v>0.7931400381906542</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.19112762395683</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>3.913817401021374</v>
-      </c>
+        <v>2.801092253592319</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="inlineStr"/>
     </row>
@@ -926,28 +920,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.042891772530671</v>
+        <v>-1.961024784973216</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.947470193187906</v>
+        <v>-1.976854963739279</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.657909383505576</v>
+        <v>-1.623809341209579</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.770468257916445</v>
+        <v>-1.740393089107304</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5496517365607089</v>
+        <v>-0.5340288390624431</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9268979141648611</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.9128117215524089</v>
+        <v>-0.9043892831260303</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5828266892929014</v>
+        <v>-0.583864050359315</v>
       </c>
     </row>
     <row r="15">
@@ -958,28 +952,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.085867963558837</v>
+        <v>2.428613090917297</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8211002926779769</v>
+        <v>0.7965529281528789</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4418960142433651</v>
+        <v>0.4332335468400307</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8411844816853649</v>
+        <v>1.124171641761416</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.177447605410263</v>
+        <v>1.554837718271306</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.277831576224272</v>
+        <v>2.367726768789573</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.012318383097554</v>
+        <v>0.9685931917616699</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.781930213897971</v>
+        <v>1.254254100216019</v>
       </c>
     </row>
     <row r="16">
@@ -1003,7 +997,7 @@
         <v>-2.836630525897445</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.3853856647624079</v>
+        <v>-0.3853856647624085</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.6386341949383946</v>
@@ -1015,7 +1009,7 @@
         <v>-0.6780687592668043</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1152019461442552</v>
+        <v>-0.1152019461442554</v>
       </c>
     </row>
     <row r="17">
@@ -1026,28 +1020,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.283797679421619</v>
+        <v>-6.866917185881818</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.157187927087477</v>
+        <v>-4.121824499562086</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.364800463286244</v>
+        <v>-5.263285642136363</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.103325031475122</v>
+        <v>-1.924339621256952</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.8508452335549251</v>
+        <v>-0.8479604259786718</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.8156865942141294</v>
+        <v>-0.7843046257475648</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.8954003843507989</v>
+        <v>-0.8851983464735458</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4885399707633356</v>
+        <v>-0.4478771349100166</v>
       </c>
     </row>
     <row r="18">
@@ -1058,28 +1052,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.429706512551792</v>
+        <v>-1.317265707668905</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5983450156087298</v>
+        <v>0.6554385190923946</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.5772001085978055</v>
+        <v>-0.7950290720804218</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.506118514410589</v>
+        <v>1.402674628533532</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.2403580712479107</v>
+        <v>-0.2224501770214874</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3256799798847909</v>
+        <v>0.4218227905383982</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.1258053452528177</v>
+        <v>-0.1785409137778072</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7167845808135576</v>
+        <v>0.5588016649860047</v>
       </c>
     </row>
     <row r="19">
@@ -1103,7 +1097,7 @@
         <v>-0.6609569087337085</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-2.080788042258032</v>
+        <v>-2.080788042258033</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.4461839236703612</v>
@@ -1115,7 +1109,7 @@
         <v>-0.1617949472390581</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.3298962297608861</v>
+        <v>-0.3298962297608862</v>
       </c>
     </row>
     <row r="20">
@@ -1126,28 +1120,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-9.373965949013426</v>
+        <v>-9.730338175206754</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-7.227431749145362</v>
+        <v>-7.469503251883689</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.460744696807124</v>
+        <v>-3.523667853566855</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-4.886230015354169</v>
+        <v>-4.626513819480746</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6843349559444308</v>
+        <v>-0.7003442245119466</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8962133489515626</v>
+        <v>-0.9059279904761725</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6414517444235387</v>
+        <v>-0.6201163531954204</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5950203478946839</v>
+        <v>-0.5738674626609469</v>
       </c>
     </row>
     <row r="21">
@@ -1158,28 +1152,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-0.4176936732007583</v>
+        <v>-1.02901227731342</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-0.987027764677491</v>
+        <v>-1.193783273690046</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.108674856947003</v>
+        <v>2.130016617124811</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2524652274529768</v>
+        <v>0.3974584381102733</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.02350395028895642</v>
+        <v>-0.09986869558234464</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.05226662374982327</v>
+        <v>-0.2692418751095986</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8549964987247486</v>
+        <v>0.8594104352141856</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.05700369890955143</v>
+        <v>0.106880666361238</v>
       </c>
     </row>
     <row r="22">
@@ -1203,7 +1197,7 @@
         <v>-3.343045962182958</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-1.78727940241807</v>
+        <v>-1.787279402418071</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.6621150281323441</v>
@@ -1215,7 +1209,7 @@
         <v>-0.4685481225754386</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.2166043101893819</v>
+        <v>-0.216604310189382</v>
       </c>
     </row>
     <row r="23">
@@ -1226,28 +1220,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-20.99328967716877</v>
+        <v>-19.98968256095263</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.93153591191528</v>
+        <v>-11.69712841156369</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.999440174836537</v>
+        <v>-6.990982225299342</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.788577322479407</v>
+        <v>-4.835843602283284</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.7978544965686841</v>
+        <v>-0.7880203070796025</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.7871698641236496</v>
+        <v>-0.7978540227491948</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.7499386591254813</v>
+        <v>-0.738591226495464</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.4617066966516428</v>
+        <v>-0.456580737045091</v>
       </c>
     </row>
     <row r="24">
@@ -1258,28 +1252,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-7.813812264346176</v>
+        <v>-8.095521005936854</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.669183636263531</v>
+        <v>-2.776628043254123</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1740006681862505</v>
+        <v>0.3582503780187622</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.01420819830047</v>
+        <v>1.366088008853055</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.4308655716330262</v>
+        <v>-0.4503062137946239</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.2549518814717804</v>
+        <v>-0.3138344857752792</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1395627975865713</v>
+        <v>0.2109890728009144</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1583826639460056</v>
+        <v>0.2583035048452181</v>
       </c>
     </row>
     <row r="25">
@@ -1303,7 +1297,7 @@
         <v>-0.6743451074183514</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.02077897198490553</v>
+        <v>0.02077897198490587</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.3474918286776134</v>
@@ -1315,7 +1309,7 @@
         <v>-0.3443076767982053</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.008149999135028159</v>
+        <v>0.008149999135028296</v>
       </c>
     </row>
     <row r="26">
@@ -1326,28 +1320,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.332061064233431</v>
+        <v>-2.388119986784193</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.592964535002464</v>
+        <v>-1.557945587064732</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.331846856493736</v>
+        <v>-1.258089709567507</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.7233743047967225</v>
+        <v>-0.662794141035731</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4984370533910211</v>
+        <v>-0.5143196400702617</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6213558791546866</v>
+        <v>-0.6226144186108075</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5620873731263245</v>
+        <v>-0.558892980418026</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2443532729268401</v>
+        <v>-0.2274145562716402</v>
       </c>
     </row>
     <row r="27">
@@ -1358,28 +1352,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-0.5692304976613274</v>
+        <v>-0.5175995563381459</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-0.2240427879206857</v>
+        <v>-0.2867292425548474</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-0.09365247252870891</v>
+        <v>-0.05150044193818576</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.6425705663170176</v>
+        <v>0.7297837935927315</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1401979734886749</v>
+        <v>-0.1426980646189694</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1208792719272601</v>
+        <v>-0.1518774907862</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.0347620454758054</v>
+        <v>-0.01965762833134545</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2845391934181404</v>
+        <v>0.3205336913932772</v>
       </c>
     </row>
     <row r="28">
